--- a/Baseline Timing/Baseline Data.xlsx
+++ b/Baseline Timing/Baseline Data.xlsx
@@ -80,16 +80,16 @@
     <t>Array Length</t>
   </si>
   <si>
-    <t>OMP</t>
+    <t>ArrayLength</t>
   </si>
   <si>
-    <t>Baseline</t>
+    <t>Improved Algo(ms)</t>
   </si>
   <si>
-    <t>GPU</t>
+    <t>OMP(ms)</t>
   </si>
   <si>
-    <t>ArrayLength</t>
+    <t>GPU(ms)</t>
   </si>
 </sst>
 </file>
@@ -159,6 +159,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Improved</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -326,6 +356,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -388,6 +474,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average Total</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -489,6 +635,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Improved Algo vs OMP vs GPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -534,7 +706,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Baseline</c:v>
+                  <c:v>Improved Algo(ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -633,7 +805,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>OMP</c:v>
+                  <c:v>OMP(ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -732,7 +904,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>GPU</c:v>
+                  <c:v>GPU(ms)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -854,6 +1026,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -917,6 +1145,1477 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Total Time(log(ms))</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426022880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Improved Algo vs OMP vs GPU(log-log)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved Algo(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$29:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$29:$P$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>47.205152399999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.44228240000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1392.4114978999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4278.9516023999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10418.174270699999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21577.066277100002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5252-4A0F-8837-D5EE70F34430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OMP(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$29:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$29:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43.213101699999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279.514343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1294.9311026999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4036.6095006999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9762.6437215999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20203.198844999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5252-4A0F-8837-D5EE70F34430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$29:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$29:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>174.70249329999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.90501979999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.83636970000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>267.85437250000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>393.0992675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>631.90533040000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5252-4A0F-8837-D5EE70F34430}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="426022880"/>
+        <c:axId val="426024960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="426022880"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="20"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426024960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="426024960"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Total Time(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426022880"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>Improved Algo vs OMP vs GPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Improved Algo(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$29:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$P$29:$P$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>47.205152399999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300.44228240000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1392.4114978999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4278.9516023999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10418.174270699999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21577.066277100002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD4C-405C-980F-21E4DACF1D38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OMP(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$29:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$29:$Q$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43.213101699999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>279.514343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1294.9311026999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4036.6095006999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9762.6437215999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20203.198844999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD4C-405C-980F-21E4DACF1D38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$O$29:$O$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>150</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$29:$R$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>174.70249329999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>183.90501979999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>206.83636970000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>267.85437250000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>393.0992675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>631.90533040000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD4C-405C-980F-21E4DACF1D38}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="426022880"/>
+        <c:axId val="426024960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="426022880"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Array Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="426024960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="426024960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Total Time(ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1115,6 +2814,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2147,6 +3926,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2157,10 +4968,10 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2182,15 +4993,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>400049</xdr:colOff>
+      <xdr:colOff>409573</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>390523</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2204,6 +5015,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2477,8 +5352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N32" sqref="N32"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L47" sqref="L47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2486,7 +5361,9 @@
     <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
@@ -3328,16 +6205,16 @@
         <v>4.7750700000000007E-2</v>
       </c>
       <c r="O28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="P28" t="s">
         <v>19</v>
       </c>
       <c r="Q28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="R28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
